--- a/results/I2_N10_T100_C300_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C300_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498.8474223937857</v>
+        <v>44.93688026761753</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.21688026761753</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.511158257795896</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.511158257795896</v>
+        <v>0.6217041096856285</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.64</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,78 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -766,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -777,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -788,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -799,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -810,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -821,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -832,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -890,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1061,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>30.60033324079214</v>
       </c>
     </row>
     <row r="4">
@@ -1069,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.162545239637524</v>
+        <v>34.72107346555759</v>
       </c>
     </row>
     <row r="5">
@@ -1077,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34.16886835983306</v>
       </c>
     </row>
     <row r="6">
@@ -1085,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.71579249669672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>33.8200130889828</v>
       </c>
     </row>
     <row r="9">
@@ -1109,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.60033324079212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1117,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.40354251021169</v>
+        <v>32.31224998648503</v>
       </c>
     </row>
     <row r="11">
@@ -1125,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.94987179065701</v>
+        <v>36.63062389744944</v>
       </c>
     </row>
     <row r="12">
@@ -1133,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.73266487536227</v>
+        <v>35.22705701268762</v>
       </c>
     </row>
     <row r="13">
@@ -1141,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.83745476036248</v>
+        <v>36.48759645946009</v>
       </c>
     </row>
     <row r="14">
@@ -1149,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.23171342868595</v>
+        <v>39.73914444587759</v>
       </c>
     </row>
     <row r="15">
@@ -1157,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>33.01392562639435</v>
+        <v>37.3015579161986</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1137,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1212,90 +1146,6 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>175.2150000000015</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="8">
@@ -1409,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>186.3899999999991</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>180.4649999999991</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="10">
@@ -1431,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>188.4800000000016</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="11">
@@ -1442,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>184.3449999999991</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="12">
@@ -1453,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>65.27000000000072</v>
+        <v>274.4950000000024</v>
       </c>
     </row>
     <row r="13">
@@ -1464,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.8</v>
+        <v>282.9900000000024</v>
       </c>
     </row>
     <row r="14">
@@ -1475,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.19500000000073</v>
+        <v>275.9600000000024</v>
       </c>
     </row>
     <row r="15">
@@ -1486,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>69.32500000000073</v>
+        <v>289.3600000000025</v>
       </c>
     </row>
     <row r="16">
@@ -1497,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.54000000000073</v>
+        <v>285.0050000000024</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="18">
@@ -1519,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="19">
@@ -1530,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1541,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1563,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>295.9199999999997</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1574,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>323.5</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1585,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>294.2649999999996</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1596,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>311.1</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1607,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>297.3649999999997</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1673,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>177.26</v>
       </c>
     </row>
     <row r="33">
@@ -1684,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>188.5600000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1695,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="35">
@@ -1706,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>181.48</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>167.6700000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1728,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>258.29</v>
+        <v>83.07500000000087</v>
       </c>
     </row>
     <row r="38">
@@ -1739,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>271.11</v>
+        <v>84.72000000000087</v>
       </c>
     </row>
     <row r="39">
@@ -1750,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.44</v>
+        <v>77.97500000000086</v>
       </c>
     </row>
     <row r="40">
@@ -1761,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>278.25</v>
+        <v>89.77000000000088</v>
       </c>
     </row>
     <row r="41">
@@ -1772,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>266.2</v>
+        <v>81.85500000000087</v>
       </c>
     </row>
     <row r="42">
@@ -1783,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>223.2900000000002</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1794,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>243.445</v>
+        <v>159.2150000000007</v>
       </c>
     </row>
     <row r="44">
@@ -1805,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9450000000002</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1816,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>227.145</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1827,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>216.55</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1838,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>155.3650000000007</v>
+        <v>283.9899999999987</v>
       </c>
     </row>
     <row r="48">
@@ -1849,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000006</v>
+        <v>305.86</v>
       </c>
     </row>
     <row r="49">
@@ -1860,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000007</v>
+        <v>283.5849999999987</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.3750000000006</v>
+        <v>299.1099999999986</v>
       </c>
     </row>
     <row r="51">
@@ -1882,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.6200000000007</v>
+        <v>277.3899999999987</v>
       </c>
     </row>
     <row r="52">
@@ -1893,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>316.24</v>
+        <v>198.5049999999982</v>
       </c>
     </row>
     <row r="53">
@@ -1904,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>329.79</v>
+        <v>217.895</v>
       </c>
     </row>
     <row r="54">
@@ -1915,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>320.17</v>
+        <v>203.8699999999982</v>
       </c>
     </row>
     <row r="55">
@@ -1926,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>338.905</v>
+        <v>208.3799999999981</v>
       </c>
     </row>
     <row r="56">
@@ -1937,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>319.115</v>
+        <v>192.6599999999982</v>
       </c>
     </row>
     <row r="57">
@@ -1948,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>316.24</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="58">
@@ -1959,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>329.79</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="59">
@@ -1970,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>320.17</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="60">
@@ -1981,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>338.905</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="61">
@@ -1992,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>319.115</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="62">
@@ -2003,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>295.9199999999997</v>
+        <v>283.9899999999987</v>
       </c>
     </row>
     <row r="63">
@@ -2014,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>323.5</v>
+        <v>305.86</v>
       </c>
     </row>
     <row r="64">
@@ -2025,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>294.2649999999996</v>
+        <v>283.5849999999987</v>
       </c>
     </row>
     <row r="65">
@@ -2036,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>311.1</v>
+        <v>299.1099999999986</v>
       </c>
     </row>
     <row r="66">
@@ -2047,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>297.3649999999997</v>
+        <v>277.3899999999987</v>
       </c>
     </row>
     <row r="67">
@@ -2058,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>154.3</v>
+        <v>274.4950000000024</v>
       </c>
     </row>
     <row r="68">
@@ -2069,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>148.3449999999993</v>
+        <v>282.9900000000024</v>
       </c>
     </row>
     <row r="69">
@@ -2080,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>128.7049999999993</v>
+        <v>275.9600000000024</v>
       </c>
     </row>
     <row r="70">
@@ -2091,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>146.3249999999993</v>
+        <v>289.3600000000025</v>
       </c>
     </row>
     <row r="71">
@@ -2102,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>134.2149999999993</v>
+        <v>285.0050000000024</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2160,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>29.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2171,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2182,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>38.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2193,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2215,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="9">
@@ -2237,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2416,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>11.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2427,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2438,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2449,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>18.805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2903,7 +2753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,78 +2780,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C300_0_P2_res.xlsx
+++ b/results/I2_N10_T100_C300_0_P2_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01900005340576172</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
